--- a/www.eia.gov/electricity/monthly/xls/table_4_02.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
-    <t>Table 4.2. Receipts, Average Cost, and Quality of Fossil Fuels: Electric Utilities, 2006 - October 2016</t>
+    <t>Table 4.2. Receipts, Average Cost, and Quality of Fossil Fuels: Electric Utilities, 2006 - November 2016</t>
   </si>
   <si>
     <t/>
@@ -131,7 +131,7 @@
     <t>Year to Date</t>
   </si>
   <si>
-    <t>Rolling 12 Months Ending in October</t>
+    <t>Rolling 12 Months Ending in November</t>
   </si>
   <si>
     <t>Displayed values of zero may represent small values that round to zero.
@@ -1106,7 +1106,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -3100,270 +3100,311 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="14">
+        <v>801020</v>
+      </c>
+      <c r="C53" s="14">
+        <v>41349</v>
+      </c>
+      <c r="D53" s="15">
+        <v>2.13</v>
+      </c>
+      <c r="E53" s="15">
+        <v>41.33</v>
+      </c>
+      <c r="F53" s="15">
+        <v>1.21</v>
+      </c>
+      <c r="G53" s="16">
+        <v>116.9</v>
+      </c>
+      <c r="H53" s="14">
+        <v>6595</v>
+      </c>
+      <c r="I53" s="14">
+        <v>1074</v>
+      </c>
+      <c r="J53" s="15">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="K53" s="15">
+        <v>60.1</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="M53" s="16">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <v>2014</v>
-      </c>
-      <c r="B54" s="14">
-        <v>9993278</v>
-      </c>
-      <c r="C54" s="14">
-        <v>508582</v>
-      </c>
-      <c r="D54" s="15">
-        <v>2.38</v>
-      </c>
-      <c r="E54" s="15">
-        <v>46.69</v>
-      </c>
-      <c r="F54" s="15">
-        <v>1.22</v>
-      </c>
-      <c r="G54" s="16">
-        <v>96.2</v>
-      </c>
-      <c r="H54" s="14">
-        <v>78085</v>
-      </c>
-      <c r="I54" s="14">
-        <v>12889</v>
-      </c>
-      <c r="J54" s="15">
-        <v>21.21</v>
-      </c>
-      <c r="K54" s="15">
-        <v>128.52000000000001</v>
-      </c>
-      <c r="L54" s="15">
-        <v>0.42</v>
-      </c>
-      <c r="M54" s="16">
-        <v>74.900000000000006</v>
-      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B55" s="14">
-        <v>9400306</v>
+        <v>11003837</v>
       </c>
       <c r="C55" s="14">
-        <v>484096</v>
+        <v>560287</v>
       </c>
       <c r="D55" s="15">
-        <v>2.2599999999999998</v>
+        <v>2.37</v>
       </c>
       <c r="E55" s="15">
-        <v>43.93</v>
+        <v>46.58</v>
       </c>
       <c r="F55" s="15">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="G55" s="16">
-        <v>103.7</v>
+        <v>97.4</v>
       </c>
       <c r="H55" s="14">
-        <v>74080</v>
+        <v>85597</v>
       </c>
       <c r="I55" s="14">
-        <v>12151</v>
+        <v>14126</v>
       </c>
       <c r="J55" s="15">
-        <v>11.89</v>
+        <v>20.9</v>
       </c>
       <c r="K55" s="15">
-        <v>72.5</v>
+        <v>126.68</v>
       </c>
       <c r="L55" s="15">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="M55" s="16">
-        <v>75.5</v>
+        <v>76.599999999999994</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B56" s="14">
+        <v>10263092</v>
+      </c>
+      <c r="C56" s="14">
+        <v>528926</v>
+      </c>
+      <c r="D56" s="15">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E56" s="15">
+        <v>43.8</v>
+      </c>
+      <c r="F56" s="15">
+        <v>1.17</v>
+      </c>
+      <c r="G56" s="16">
+        <v>105.3</v>
+      </c>
+      <c r="H56" s="14">
+        <v>82638</v>
+      </c>
+      <c r="I56" s="14">
+        <v>13537</v>
+      </c>
+      <c r="J56" s="15">
+        <v>11.57</v>
+      </c>
+      <c r="K56" s="15">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="L56" s="15">
+        <v>0.47</v>
+      </c>
+      <c r="M56" s="16">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
         <v>2016</v>
       </c>
-      <c r="B56" s="14">
-        <v>7623862</v>
-      </c>
-      <c r="C56" s="14">
-        <v>391467</v>
-      </c>
-      <c r="D56" s="15">
+      <c r="B57" s="14">
+        <v>8424882</v>
+      </c>
+      <c r="C57" s="14">
+        <v>432816</v>
+      </c>
+      <c r="D57" s="15">
         <v>2.17</v>
       </c>
-      <c r="E56" s="15">
-        <v>42.26</v>
-      </c>
-      <c r="F56" s="15">
+      <c r="E57" s="15">
+        <v>42.17</v>
+      </c>
+      <c r="F57" s="15">
         <v>1.22</v>
       </c>
-      <c r="G56" s="16">
-        <v>94</v>
-      </c>
-      <c r="H56" s="14">
-        <v>60849</v>
-      </c>
-      <c r="I56" s="14">
-        <v>9937</v>
-      </c>
-      <c r="J56" s="15">
-        <v>8.94</v>
-      </c>
-      <c r="K56" s="15">
-        <v>54.77</v>
-      </c>
-      <c r="L56" s="15">
-        <v>0.45</v>
-      </c>
-      <c r="M56" s="16">
-        <v>75.7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="G57" s="16">
+        <v>95.8</v>
+      </c>
+      <c r="H57" s="14">
+        <v>67444</v>
+      </c>
+      <c r="I57" s="14">
+        <v>11011</v>
+      </c>
+      <c r="J57" s="15">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="K57" s="15">
+        <v>55.29</v>
+      </c>
+      <c r="L57" s="15">
+        <v>0.46</v>
+      </c>
+      <c r="M57" s="16">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B58" s="14">
-        <v>11471838</v>
-      </c>
-      <c r="C58" s="14">
-        <v>590242</v>
-      </c>
-      <c r="D58" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E58" s="15">
-        <v>44.69</v>
-      </c>
-      <c r="F58" s="15">
-        <v>1.18</v>
-      </c>
-      <c r="G58" s="16">
-        <v>104.7</v>
-      </c>
-      <c r="H58" s="14">
-        <v>94352</v>
-      </c>
-      <c r="I58" s="14">
-        <v>15423</v>
-      </c>
-      <c r="J58" s="15">
-        <v>12.53</v>
-      </c>
-      <c r="K58" s="15">
-        <v>76.680000000000007</v>
-      </c>
-      <c r="L58" s="15">
-        <v>0.46</v>
-      </c>
-      <c r="M58" s="16">
-        <v>82.9</v>
-      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B59" s="14">
+        <v>11324065</v>
+      </c>
+      <c r="C59" s="14">
+        <v>583367</v>
+      </c>
+      <c r="D59" s="15">
+        <v>2.29</v>
+      </c>
+      <c r="E59" s="15">
+        <v>44.45</v>
+      </c>
+      <c r="F59" s="15">
+        <v>1.17</v>
+      </c>
+      <c r="G59" s="16">
+        <v>105.6</v>
+      </c>
+      <c r="H59" s="14">
+        <v>95399</v>
+      </c>
+      <c r="I59" s="14">
+        <v>15573</v>
+      </c>
+      <c r="J59" s="15">
+        <v>11.79</v>
+      </c>
+      <c r="K59" s="15">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="L59" s="15">
+        <v>0.47</v>
+      </c>
+      <c r="M59" s="16">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
         <v>2016</v>
       </c>
-      <c r="B59" s="14">
-        <v>9312187</v>
-      </c>
-      <c r="C59" s="14">
-        <v>479079</v>
-      </c>
-      <c r="D59" s="15">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="E59" s="15">
-        <v>42.3</v>
-      </c>
-      <c r="F59" s="15">
+      <c r="B60" s="14">
+        <v>9250421</v>
+      </c>
+      <c r="C60" s="14">
+        <v>475597</v>
+      </c>
+      <c r="D60" s="15">
+        <v>2.17</v>
+      </c>
+      <c r="E60" s="15">
+        <v>42.21</v>
+      </c>
+      <c r="F60" s="15">
         <v>1.21</v>
       </c>
-      <c r="G59" s="16">
-        <v>97.8</v>
-      </c>
-      <c r="H59" s="14">
-        <v>76810</v>
-      </c>
-      <c r="I59" s="14">
-        <v>12532</v>
-      </c>
-      <c r="J59" s="15">
-        <v>8.89</v>
-      </c>
-      <c r="K59" s="15">
-        <v>54.47</v>
-      </c>
-      <c r="L59" s="15">
-        <v>0.46</v>
-      </c>
-      <c r="M59" s="16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
+      <c r="G60" s="16">
+        <v>97.1</v>
+      </c>
+      <c r="H60" s="14">
+        <v>74847</v>
+      </c>
+      <c r="I60" s="14">
+        <v>12220</v>
+      </c>
+      <c r="J60" s="15">
+        <v>8.98</v>
+      </c>
+      <c r="K60" s="15">
+        <v>54.98</v>
+      </c>
+      <c r="L60" s="15">
+        <v>0.44</v>
+      </c>
+      <c r="M60" s="16">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="A61:M61"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="A29:M29"/>
     <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A57:M57"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A58:M58"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:M2"/>
